--- a/Python/XZHY-XGTC.xlsx
+++ b/Python/XZHY-XGTC.xlsx
@@ -1288,15 +1288,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[4]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[6]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[7]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,9 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>2</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>2</v>
